--- a/data/output/FV2410_FV2404/UTILMD/55107.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55107.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5114" uniqueCount="406">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5135" uniqueCount="406">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1342,6 +1342,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U225" totalsRowShown="0">
+  <autoFilter ref="A1:U225"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1631,7 +1661,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -12597,5 +12630,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55107.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55107.xlsx
@@ -2415,7 +2415,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2777,7 +2777,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2923,7 +2923,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -3125,7 +3125,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -3633,7 +3633,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -4319,7 +4319,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4521,7 +4521,7 @@
         <v>379</v>
       </c>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4741,7 +4741,7 @@
         <v>380</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4961,7 +4961,7 @@
         <v>381</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -5181,7 +5181,7 @@
         <v>381</v>
       </c>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -5401,7 +5401,7 @@
         <v>382</v>
       </c>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -5621,7 +5621,7 @@
         <v>383</v>
       </c>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -5895,7 +5895,7 @@
         <v>381</v>
       </c>
       <c r="L68" s="4"/>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -6111,7 +6111,7 @@
         <v>384</v>
       </c>
       <c r="L72" s="4"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -6315,7 +6315,7 @@
         <v>383</v>
       </c>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -6519,7 +6519,7 @@
         <v>387</v>
       </c>
       <c r="L80" s="4"/>
-      <c r="M80" s="2" t="s">
+      <c r="M80" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N80" s="2" t="s">
@@ -6721,7 +6721,7 @@
       </c>
       <c r="K84" s="2"/>
       <c r="L84" s="4"/>
-      <c r="M84" s="2" t="s">
+      <c r="M84" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N84" s="2" t="s">
@@ -6919,7 +6919,7 @@
         <v>388</v>
       </c>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -7067,7 +7067,7 @@
       </c>
       <c r="K91" s="2"/>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -7227,7 +7227,7 @@
         <v>389</v>
       </c>
       <c r="L94" s="4"/>
-      <c r="M94" s="2" t="s">
+      <c r="M94" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N94" s="2" t="s">
@@ -7713,7 +7713,7 @@
         <v>393</v>
       </c>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N103" s="2" t="s">
@@ -7973,7 +7973,7 @@
       </c>
       <c r="K108" s="2"/>
       <c r="L108" s="4"/>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -8175,7 +8175,7 @@
         <v>395</v>
       </c>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -8323,7 +8323,7 @@
       </c>
       <c r="K115" s="2"/>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -8481,7 +8481,7 @@
       </c>
       <c r="K118" s="2"/>
       <c r="L118" s="4"/>
-      <c r="M118" s="2" t="s">
+      <c r="M118" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N118" s="2" t="s">
@@ -8679,7 +8679,7 @@
         <v>383</v>
       </c>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -8981,7 +8981,7 @@
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -9235,7 +9235,7 @@
       </c>
       <c r="K133" s="2"/>
       <c r="L133" s="4"/>
-      <c r="M133" s="2" t="s">
+      <c r="M133" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N133" s="2" t="s">
@@ -9437,7 +9437,7 @@
         <v>397</v>
       </c>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -9649,7 +9649,7 @@
         <v>398</v>
       </c>
       <c r="L141" s="4"/>
-      <c r="M141" s="2" t="s">
+      <c r="M141" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N141" s="2" t="s">
@@ -9847,7 +9847,7 @@
       </c>
       <c r="K145" s="2"/>
       <c r="L145" s="4"/>
-      <c r="M145" s="2" t="s">
+      <c r="M145" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N145" s="2" t="s">
@@ -10007,7 +10007,7 @@
         <v>399</v>
       </c>
       <c r="L148" s="4"/>
-      <c r="M148" s="2" t="s">
+      <c r="M148" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N148" s="2" t="s">
@@ -10269,7 +10269,7 @@
         <v>401</v>
       </c>
       <c r="L153" s="4"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -10417,7 +10417,7 @@
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -10571,7 +10571,7 @@
       </c>
       <c r="K159" s="2"/>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -10827,7 +10827,7 @@
         <v>402</v>
       </c>
       <c r="L164" s="4"/>
-      <c r="M164" s="2" t="s">
+      <c r="M164" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N164" s="2" t="s">
@@ -10975,7 +10975,7 @@
       </c>
       <c r="K167" s="2"/>
       <c r="L167" s="4"/>
-      <c r="M167" s="2" t="s">
+      <c r="M167" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N167" s="2" t="s">
@@ -11133,7 +11133,7 @@
       </c>
       <c r="K170" s="2"/>
       <c r="L170" s="4"/>
-      <c r="M170" s="2" t="s">
+      <c r="M170" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N170" s="2" t="s">
@@ -11435,7 +11435,7 @@
         <v>403</v>
       </c>
       <c r="L176" s="4"/>
-      <c r="M176" s="2" t="s">
+      <c r="M176" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N176" s="2" t="s">
@@ -11583,7 +11583,7 @@
       </c>
       <c r="K179" s="2"/>
       <c r="L179" s="4"/>
-      <c r="M179" s="2" t="s">
+      <c r="M179" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N179" s="2" t="s">
@@ -11741,7 +11741,7 @@
       </c>
       <c r="K182" s="2"/>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -11983,7 +11983,7 @@
       </c>
       <c r="K187" s="2"/>
       <c r="L187" s="4"/>
-      <c r="M187" s="2" t="s">
+      <c r="M187" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N187" s="2" t="s">
@@ -12337,7 +12337,7 @@
       </c>
       <c r="K194" s="2"/>
       <c r="L194" s="4"/>
-      <c r="M194" s="2" t="s">
+      <c r="M194" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N194" s="2" t="s">
@@ -12759,7 +12759,7 @@
         <v>405</v>
       </c>
       <c r="L202" s="4"/>
-      <c r="M202" s="2" t="s">
+      <c r="M202" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N202" s="2" t="s">
@@ -12907,7 +12907,7 @@
       </c>
       <c r="K205" s="2"/>
       <c r="L205" s="4"/>
-      <c r="M205" s="2" t="s">
+      <c r="M205" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N205" s="2" t="s">
@@ -13065,7 +13065,7 @@
       </c>
       <c r="K208" s="2"/>
       <c r="L208" s="4"/>
-      <c r="M208" s="2" t="s">
+      <c r="M208" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N208" s="2" t="s">
@@ -13309,7 +13309,7 @@
         <v>406</v>
       </c>
       <c r="L213" s="4"/>
-      <c r="M213" s="2" t="s">
+      <c r="M213" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N213" s="2" t="s">
@@ -13623,7 +13623,7 @@
       </c>
       <c r="K219" s="2"/>
       <c r="L219" s="4"/>
-      <c r="M219" s="2" t="s">
+      <c r="M219" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N219" s="2" t="s">
@@ -13837,7 +13837,7 @@
       </c>
       <c r="K223" s="2"/>
       <c r="L223" s="4"/>
-      <c r="M223" s="2" t="s">
+      <c r="M223" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N223" s="2"/>
